--- a/Doc/AliasSheet/Alias_IncomeStatement_Ts.xlsx
+++ b/Doc/AliasSheet/Alias_IncomeStatement_Ts.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E024D037-AA10-4647-A88C-7E636C3FB409}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11020"/>
+    <workbookView xWindow="4548" yWindow="1140" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,19 +609,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,14 +653,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF0A0A0A"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -669,7 +662,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -692,24 +685,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,23 +701,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -777,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,9 +793,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,6 +845,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1018,20 +1038,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
@@ -1041,11 +1061,11 @@
       <c r="C1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1075,10 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1088,10 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1077,8 +1101,10 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1114,10 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="61.8" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,11 +1127,12 @@
       <c r="C6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.5" thickBot="1">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,11 +1142,12 @@
       <c r="C7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.5" thickBot="1">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1157,10 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1138,8 +1170,10 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.5" thickBot="1">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,8 +1183,10 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,8 +1196,10 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1171,8 +1209,10 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.5" thickBot="1">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1182,8 +1222,10 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.5" thickBot="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="21" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1193,8 +1235,10 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.5" thickBot="1">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="21" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1204,8 +1248,10 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.5" thickBot="1">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1215,8 +1261,10 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1226,8 +1274,10 @@
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1237,8 +1287,10 @@
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1248,8 +1300,10 @@
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1259,8 +1313,10 @@
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1270,8 +1326,10 @@
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1281,8 +1339,10 @@
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1292,8 +1352,10 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1303,8 +1365,10 @@
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1314,8 +1378,10 @@
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1325,8 +1391,10 @@
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1336,8 +1404,10 @@
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1347,8 +1417,10 @@
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1358,8 +1430,10 @@
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1369,8 +1443,10 @@
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1380,8 +1456,10 @@
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1391,8 +1469,10 @@
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1402,8 +1482,10 @@
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="21" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1413,8 +1495,10 @@
       <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1424,8 +1508,10 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1435,8 +1521,10 @@
       <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1446,8 +1534,10 @@
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1457,8 +1547,10 @@
       <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1468,8 +1560,10 @@
       <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="21" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -1479,8 +1573,10 @@
       <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="21" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -1490,8 +1586,10 @@
       <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -1501,8 +1599,10 @@
       <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1512,8 +1612,10 @@
       <c r="C43" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1523,8 +1625,10 @@
       <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="21" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1534,8 +1638,10 @@
       <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="21" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -1545,8 +1651,10 @@
       <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="21" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1556,8 +1664,10 @@
       <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="21" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -1567,8 +1677,10 @@
       <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="21" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -1578,8 +1690,10 @@
       <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="21" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -1589,8 +1703,10 @@
       <c r="C50" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="21" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -1600,8 +1716,10 @@
       <c r="C51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="21" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -1611,8 +1729,10 @@
       <c r="C52" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -1622,8 +1742,10 @@
       <c r="C53" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -1633,8 +1755,10 @@
       <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -1644,8 +1768,10 @@
       <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="21" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -1655,8 +1781,10 @@
       <c r="C56" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="21" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -1666,8 +1794,10 @@
       <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="21" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -1677,8 +1807,10 @@
       <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="21" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -1688,8 +1820,10 @@
       <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="21" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -1699,8 +1833,10 @@
       <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="21" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -1710,8 +1846,10 @@
       <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -1721,8 +1859,10 @@
       <c r="C62" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.5" thickBot="1">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -1732,8 +1872,10 @@
       <c r="C63" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="20.5" thickBot="1">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="21" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
@@ -1743,8 +1885,10 @@
       <c r="C64" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
@@ -1754,8 +1898,10 @@
       <c r="C65" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="20.5" thickBot="1">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="21" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
@@ -1765,8 +1911,10 @@
       <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.5" thickBot="1">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
@@ -1776,9 +1924,17 @@
       <c r="C67" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1788,12 +1944,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,12 +1958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
